--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -686,28 +686,28 @@
         <v>2.18</v>
       </c>
       <c r="T2" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="V2" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
         <v>12.5</v>
@@ -719,22 +719,22 @@
         <v>300</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -769,94 +769,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V3" t="n">
         <v>13</v>
       </c>
       <c r="W3" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="n">
         <v>101</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -891,94 +891,94 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M4" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.05</v>
       </c>
       <c r="N4" t="n">
         <v>2.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1034,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P5" t="n">
         <v>1.22</v>
@@ -1052,13 +1052,13 @@
         <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W5" t="n">
         <v>51</v>
@@ -1070,10 +1070,10 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1150,16 +1150,16 @@
         <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1168,16 +1168,16 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
@@ -1189,16 +1189,16 @@
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
         <v>7.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1222,7 +1222,7 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1317,7 +1317,9 @@
       <c r="AC7" t="n">
         <v>150</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>101</v>
+      </c>
       <c r="AE7" t="n">
         <v>18.5</v>
       </c>
@@ -1429,7 +1431,9 @@
       <c r="AC8" t="n">
         <v>120</v>
       </c>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="n">
+        <v>101</v>
+      </c>
       <c r="AE8" t="n">
         <v>20</v>
       </c>
@@ -1452,7 +1456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08xzf7dl</t>
+          <t>n7BF4yTN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1462,59 +1466,119 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ECUADOR - SERIE B</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leones del Norte</t>
+          <t>San Carlos</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+          <t>AD Santos</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>18</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8Ace1k4E</t>
+          <t>08xzf7dl</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1524,7 +1588,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1534,12 +1598,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22 de Julio</t>
+          <t>Leones del Norte</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Atletico Vinotinto</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -1576,7 +1640,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8h8Y7d7K</t>
+          <t>8Ace1k4E</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1586,119 +1650,59 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ECUADOR - SERIE B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>22 de Julio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>El Gaish</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="U11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>37</v>
-      </c>
-      <c r="X11" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>70</v>
-      </c>
+          <t>Atletico Vinotinto</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sxk52zVs</t>
+          <t>8h8Y7d7K</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1708,7 +1712,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1718,28 +1722,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.85</v>
       </c>
       <c r="H12" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.72</v>
@@ -1757,68 +1761,70 @@
         <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="S12" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="U12" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="V12" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Y12" t="n">
         <v>65</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD12" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>101</v>
+      </c>
       <c r="AE12" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fPtoyYx9</t>
+          <t>Sxk52zVs</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1828,119 +1834,119 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>4.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="M13" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.37</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="V13" t="n">
         <v>10.75</v>
       </c>
       <c r="W13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.4</v>
+        <v>4.45</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AD13" t="n">
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lSgaDUp2</t>
+          <t>fPtoyYx9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1960,109 +1966,109 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="L14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.53</v>
       </c>
-      <c r="M14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
         <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="n">
         <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD14" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hrkGDwuo</t>
+          <t>lSgaDUp2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2082,109 +2088,109 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="S15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" t="n">
+        <v>10</v>
+      </c>
+      <c r="W15" t="n">
+        <v>23</v>
+      </c>
+      <c r="X15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE15" t="n">
         <v>7.5</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="T15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V15" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W15" t="n">
-        <v>20</v>
-      </c>
-      <c r="X15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9</v>
-      </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rkFYRTae</t>
+          <t>hrkGDwuo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2204,109 +2210,109 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="n">
         <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hYo2ysXi</t>
+          <t>rkFYRTae</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2316,7 +2322,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2326,109 +2332,109 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
         <v>3.25</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2.92</v>
-      </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
         <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QopAZK14</t>
+          <t>hYo2ysXi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2448,109 +2454,109 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N18" t="n">
         <v>2.25</v>
       </c>
-      <c r="N18" t="n">
-        <v>2.95</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YqX62Xck</t>
+          <t>QopAZK14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2560,119 +2566,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="K19" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="U19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>10.25</v>
+        <v>7</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CjKYGWCr</t>
+          <t>YqX62Xck</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2682,7 +2688,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01:55</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2692,109 +2698,109 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.45</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P20" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.87</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>10.25</v>
+        <v>6.5</v>
       </c>
       <c r="U20" t="n">
+        <v>8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>15</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
         <v>21</v>
       </c>
-      <c r="V20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>55</v>
-      </c>
-      <c r="X20" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG20" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xEoy8gzS</t>
+          <t>CjKYGWCr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2804,7 +2810,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:55</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2814,109 +2820,109 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.47</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
+        <v>12</v>
+      </c>
+      <c r="W21" t="n">
+        <v>41</v>
+      </c>
+      <c r="X21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="n">
         <v>10</v>
       </c>
-      <c r="W21" t="n">
-        <v>30</v>
-      </c>
-      <c r="X21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>8</v>
-      </c>
       <c r="AA21" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KhufOEK8</t>
+          <t>xEoy8gzS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2936,109 +2942,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="P22" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
+        <v>9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>12</v>
+      </c>
+      <c r="V22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>23</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
         <v>6.5</v>
       </c>
-      <c r="U22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W22" t="n">
-        <v>24</v>
-      </c>
-      <c r="X22" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AB22" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>h0StFAse</t>
+          <t>KhufOEK8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3058,109 +3064,109 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M23" t="n">
         <v>2.75</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.57</v>
-      </c>
       <c r="N23" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI23" t="n">
         <v>29</v>
       </c>
-      <c r="Y23" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>30</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hnm80BS1</t>
+          <t>h0StFAse</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3170,7 +3176,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3180,109 +3186,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="T24" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tM8yyh4E</t>
+          <t>hnm80BS1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3302,109 +3308,109 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="P25" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.8</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.9</v>
-      </c>
       <c r="T25" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lnCqZVYQ</t>
+          <t>tM8yyh4E</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3424,109 +3430,109 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N26" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="n">
         <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>301</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>QDQlDlC7</t>
+          <t>lnCqZVYQ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3536,7 +3542,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>03:50</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3546,109 +3552,109 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
+        <v>9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>12</v>
+      </c>
+      <c r="W27" t="n">
+        <v>34</v>
+      </c>
+      <c r="X27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA27" t="n">
         <v>6</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T27" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF27" t="n">
         <v>10</v>
       </c>
-      <c r="W27" t="n">
-        <v>24</v>
-      </c>
-      <c r="X27" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>18</v>
-      </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t8T2MhkL</t>
+          <t>QDQlDlC7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3658,7 +3664,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>03:50</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3668,109 +3674,109 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K28" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>3.55</v>
+        <v>2.63</v>
       </c>
       <c r="N28" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="T28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10</v>
+      </c>
+      <c r="W28" t="n">
+        <v>21</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE28" t="n">
         <v>8.5</v>
       </c>
-      <c r="U28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>24</v>
-      </c>
-      <c r="X28" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>10</v>
-      </c>
       <c r="AF28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>E55ncVuR</t>
+          <t>t8T2MhkL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3780,59 +3786,119 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Super Nova</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K29" t="n">
+        <v>13</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>9</v>
+      </c>
+      <c r="U29" t="n">
+        <v>11</v>
+      </c>
+      <c r="V29" t="n">
+        <v>9</v>
+      </c>
+      <c r="W29" t="n">
+        <v>21</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YknJi93l</t>
+          <t>E55ncVuR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3852,49 +3918,101 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>Super Nova</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.6</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.94</v>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10</v>
+      </c>
+      <c r="V30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>20</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pWOnE415</t>
+          <t>YknJi93l</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3904,119 +4022,111 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FC Arges</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CSM Resita</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.82</v>
+        <v>3.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.9</v>
-      </c>
+        <v>1.73</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="M31" t="n">
-        <v>2.85</v>
+        <v>3.95</v>
       </c>
       <c r="N31" t="n">
-        <v>2.15</v>
+        <v>1.66</v>
       </c>
       <c r="O31" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>1.65</v>
       </c>
-      <c r="P31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.02</v>
-      </c>
       <c r="S31" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="U31" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="V31" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="W31" t="n">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="Y31" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.9</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="n">
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.75</v>
+        <v>6.8</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>7.2</v>
       </c>
       <c r="AG31" t="n">
-        <v>15.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fVe7Hl9k</t>
+          <t>pWOnE415</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4026,111 +4136,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Al Safa</t>
+          <t>FC Arges</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>CSM Resita</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>1.82</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.9</v>
+      </c>
       <c r="L32" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="M32" t="n">
-        <v>4.3</v>
+        <v>2.85</v>
       </c>
       <c r="N32" t="n">
-        <v>1.59</v>
+        <v>2.15</v>
       </c>
       <c r="O32" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R32" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="S32" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="U32" t="n">
-        <v>17</v>
+        <v>8.25</v>
       </c>
       <c r="V32" t="n">
-        <v>9.4</v>
+        <v>9.25</v>
       </c>
       <c r="W32" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>6.9</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="AD32" t="n">
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.8</v>
+        <v>9.75</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>6.8</v>
+        <v>15.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AJ32" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lUlGFSw2</t>
+          <t>fVe7Hl9k</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4140,7 +4258,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4150,49 +4268,101 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Al Safa</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+          <t>Al Arabi</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.91</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.22</v>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>11</v>
+      </c>
+      <c r="U33" t="n">
+        <v>17</v>
+      </c>
+      <c r="V33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>40</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>xjVAyA0L</t>
+          <t>lUlGFSw2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4202,7 +4372,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4212,12 +4382,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Al Zulfi</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -4254,7 +4424,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bJp0jYIc</t>
+          <t>xjVAyA0L</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4264,119 +4434,111 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Partick Thistle</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Al Zulfi</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>1.77</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10</v>
-      </c>
+        <v>3.95</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="O35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.75</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="S35" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="T35" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="U35" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="V35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>12</v>
+      </c>
+      <c r="X35" t="n">
         <v>11</v>
       </c>
-      <c r="W35" t="n">
-        <v>29</v>
-      </c>
-      <c r="X35" t="n">
-        <v>23</v>
-      </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AD35" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AF35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG35" t="n">
         <v>11</v>
       </c>
-      <c r="AG35" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AJ35" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CCXbkWgm</t>
+          <t>bJp0jYIc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4391,54 +4553,114 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Queen of South</t>
+          <t>Partick Thistle</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+          <t>Ayr</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>15</v>
+      </c>
+      <c r="V36" t="n">
+        <v>11</v>
+      </c>
+      <c r="W36" t="n">
+        <v>34</v>
+      </c>
+      <c r="X36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0Y3tXlvJ</t>
+          <t>CCXbkWgm</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4458,49 +4680,109 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Queen of South</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T37" t="n">
+        <v>8</v>
+      </c>
+      <c r="U37" t="n">
+        <v>12</v>
+      </c>
+      <c r="V37" t="n">
+        <v>10</v>
+      </c>
+      <c r="W37" t="n">
+        <v>23</v>
+      </c>
+      <c r="X37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pnwyKocC</t>
+          <t>0Y3tXlvJ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4510,119 +4792,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Stenhousemuir</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.35</v>
+        <v>2.05</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M38" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P38" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q38" t="n">
         <v>2.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="T38" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="U38" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="V38" t="n">
+        <v>12</v>
+      </c>
+      <c r="W38" t="n">
+        <v>34</v>
+      </c>
+      <c r="X38" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG38" t="n">
         <v>9.5</v>
       </c>
-      <c r="W38" t="n">
-        <v>21</v>
-      </c>
-      <c r="X38" t="n">
+      <c r="AH38" t="n">
         <v>19</v>
       </c>
-      <c r="Y38" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB38" t="n">
+      <c r="AI38" t="n">
         <v>17</v>
       </c>
-      <c r="AC38" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IayqIPRO</t>
+          <t>pnwyKocC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4632,7 +4914,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4642,109 +4924,109 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jeju SK</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="R39" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T39" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z39" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>800</v>
+        <v>301</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
         <v>17</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>K0ToxTCt</t>
+          <t>IayqIPRO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4754,7 +5036,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4764,109 +5046,109 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Jeju SK</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>2.25</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
         <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P40" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T40" t="n">
-        <v>10.25</v>
+        <v>7</v>
       </c>
       <c r="U40" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="W40" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="X40" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AB40" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE40" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="AF40" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AI40" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SQWgz7sg</t>
+          <t>K0ToxTCt</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4886,109 +5168,109 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M41" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="P41" t="n">
         <v>1.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="T41" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="U41" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="V41" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="W41" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="X41" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA41" t="n">
         <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="AE41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG41" t="n">
         <v>9</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI41" t="n">
         <v>17</v>
       </c>
-      <c r="AG41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6wwjRRLP</t>
+          <t>SQWgz7sg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4998,32 +5280,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -5038,43 +5320,43 @@
         <v>3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O42" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>21</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z42" t="n">
         <v>10</v>
-      </c>
-      <c r="W42" t="n">
-        <v>26</v>
-      </c>
-      <c r="X42" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>11</v>
       </c>
       <c r="AA42" t="n">
         <v>6.5</v>
@@ -5089,21 +5371,143 @@
         <v>201</v>
       </c>
       <c r="AE42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>6wwjRRLP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Vasteras SK</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T43" t="n">
+        <v>9</v>
+      </c>
+      <c r="U43" t="n">
+        <v>13</v>
+      </c>
+      <c r="V43" t="n">
+        <v>10</v>
+      </c>
+      <c r="W43" t="n">
+        <v>26</v>
+      </c>
+      <c r="X43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE43" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AF43" t="n">
         <v>13</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AG43" t="n">
         <v>10</v>
       </c>
-      <c r="AH42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI42" t="n">
+      <c r="AH43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI43" t="n">
         <v>21</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AJ43" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -1485,40 +1485,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
         <v>1.8</v>
@@ -1530,49 +1530,49 @@
         <v>9</v>
       </c>
       <c r="V9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1984,10 +1984,10 @@
         <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>1.5</v>
@@ -5186,10 +5186,10 @@
         <v>1.83</v>
       </c>
       <c r="J41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
         <v>1.36</v>
@@ -5198,10 +5198,10 @@
         <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P41" t="n">
         <v>1.44</v>
@@ -5314,16 +5314,16 @@
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O42" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -1880,7 +1880,7 @@
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
         <v>2.02</v>
@@ -1901,7 +1901,7 @@
         <v>10.75</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
@@ -1925,7 +1925,7 @@
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF13" t="n">
         <v>15.5</v>
@@ -3561,19 +3561,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -3600,16 +3600,16 @@
         <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X27" t="n">
         <v>26</v>
@@ -3636,13 +3636,13 @@
         <v>7</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
         <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5177,13 +5177,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J41" t="n">
         <v>1.07</v>
@@ -5216,7 +5216,7 @@
         <v>1.73</v>
       </c>
       <c r="T41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
         <v>21</v>
@@ -5243,7 +5243,7 @@
         <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
         <v>401</v>
@@ -5320,10 +5320,10 @@
         <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,7 +939,7 @@
         <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -948,13 +948,13 @@
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="n">
         <v>1.13</v>
@@ -1034,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.22</v>
@@ -1055,10 +1055,10 @@
         <v>21</v>
       </c>
       <c r="U5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>51</v>
@@ -1067,13 +1067,13 @@
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1144,10 +1144,10 @@
         <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
@@ -2264,7 +2264,7 @@
         <v>9.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
         <v>19</v>
@@ -2279,7 +2279,7 @@
         <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB16" t="n">
         <v>17</v>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -2472,22 +2472,22 @@
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
         <v>1.14</v>
@@ -2624,10 +2624,10 @@
         <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
         <v>11</v>
@@ -2636,7 +2636,7 @@
         <v>26</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
@@ -2657,7 +2657,7 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -3317,13 +3317,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
         <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
         <v>1.08</v>
@@ -3338,10 +3338,10 @@
         <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3401,7 +3401,7 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
         <v>41</v>
@@ -3448,10 +3448,10 @@
         <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -3814,10 +3814,10 @@
         <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
         <v>1.25</v>
@@ -3826,10 +3826,10 @@
         <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -4576,22 +4576,22 @@
         <v>2.25</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N36" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4600,13 +4600,13 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U36" t="n">
         <v>15</v>
@@ -4618,13 +4618,13 @@
         <v>34</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4636,10 +4636,10 @@
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF36" t="n">
         <v>11</v>
@@ -5320,10 +5320,10 @@
         <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O42" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>
@@ -5509,6 +5509,128 @@
       </c>
       <c r="AJ43" t="n">
         <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rmhgGnAO</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K44" t="n">
+        <v>17</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>12</v>
+      </c>
+      <c r="U44" t="n">
+        <v>15</v>
+      </c>
+      <c r="V44" t="n">
+        <v>10</v>
+      </c>
+      <c r="W44" t="n">
+        <v>26</v>
+      </c>
+      <c r="X44" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -775,7 +775,7 @@
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
         <v>1.13</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>2.2</v>
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="V3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
         <v>41</v>
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
         <v>1.13</v>
@@ -1046,13 +1046,13 @@
         <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U5" t="n">
         <v>29</v>
@@ -1088,13 +1088,13 @@
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1494,10 +1494,10 @@
         <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
         <v>1.36</v>
@@ -1506,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1975,19 +1975,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.5</v>
@@ -2014,10 +2014,10 @@
         <v>1.67</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
         <v>10</v>
@@ -2047,7 +2047,7 @@
         <v>501</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>13</v>
@@ -2228,10 +2228,10 @@
         <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2240,10 +2240,10 @@
         <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2478,16 +2478,16 @@
         <v>9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
@@ -3094,10 +3094,10 @@
         <v>2.75</v>
       </c>
       <c r="N23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
@@ -3927,44 +3927,44 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="O30" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V30" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="W30" t="n">
         <v>20</v>
@@ -3973,25 +3973,25 @@
         <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AB30" t="n">
         <v>10</v>
       </c>
       <c r="AC30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD30" t="n">
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF30" t="n">
         <v>11</v>
@@ -4003,10 +4003,10 @@
         <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -4041,41 +4041,41 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="N31" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="O31" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T31" t="n">
         <v>11</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V31" t="n">
         <v>11</v>
@@ -4084,43 +4084,43 @@
         <v>50</v>
       </c>
       <c r="X31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y31" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB31" t="n">
         <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD31" t="n">
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>6.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -4277,86 +4277,86 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H33" t="n">
         <v>3.65</v>
       </c>
       <c r="I33" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="M33" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="N33" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="O33" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V33" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="W33" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X33" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH33" t="n">
         <v>21</v>
       </c>
-      <c r="Y33" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>14</v>
-      </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AJ33" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -4390,36 +4390,92 @@
           <t>Al Jabalain</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.25</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U34" t="n">
+        <v>14</v>
+      </c>
+      <c r="V34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>37</v>
+      </c>
+      <c r="X34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4453,86 +4509,90 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I35" t="n">
-        <v>3.95</v>
+        <v>4.55</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="N35" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R35" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S35" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="U35" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="V35" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA35" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AE35" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>50</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -4942,10 +5002,10 @@
         <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
         <v>1.33</v>
@@ -4954,10 +5014,10 @@
         <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P39" t="n">
         <v>1.44</v>
@@ -5302,7 +5362,7 @@
         <v>2.3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
         <v>3.1</v>
@@ -5320,28 +5380,28 @@
         <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O42" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V42" t="n">
         <v>9.5</v>
@@ -5350,13 +5410,13 @@
         <v>21</v>
       </c>
       <c r="X42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="n">
         <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
         <v>6.5</v>
@@ -5368,13 +5428,13 @@
         <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
         <v>11</v>
@@ -5386,7 +5446,7 @@
         <v>23</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -662,7 +662,7 @@
         <v>8.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>3.7</v>
@@ -674,31 +674,31 @@
         <v>2.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T2" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U2" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="V2" t="n">
         <v>8.75</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>23</v>
@@ -710,31 +710,31 @@
         <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>50</v>
       </c>
       <c r="AD2" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
       </c>
-      <c r="AF2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1016,10 +1016,10 @@
         <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1162,10 +1162,10 @@
         <v>2.08</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.7</v>
@@ -1174,10 +1174,10 @@
         <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
@@ -1204,13 +1204,13 @@
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1257,62 +1257,62 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I7" t="n">
-        <v>7.9</v>
+        <v>10.75</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U7" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="V7" t="n">
         <v>8.75</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z7" t="n">
         <v>11.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
         <v>150</v>
@@ -1321,22 +1321,22 @@
         <v>101</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H8" t="n">
         <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1385,72 +1385,76 @@
         <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+        <v>1.93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.6</v>
+      </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="T8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U8" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="V8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>12</v>
-      </c>
       <c r="AA8" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
         <v>300</v>
       </c>
       <c r="AI8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>110</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1500,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N9" t="n">
         <v>2.1</v>
@@ -1606,36 +1610,90 @@
           <t>Chacaritas</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>175</v>
+      </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1668,9 +1726,15 @@
           <t>Atletico Vinotinto</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.45</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1856,40 +1920,40 @@
         <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="K13" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
         <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>
@@ -1898,10 +1962,10 @@
         <v>9.25</v>
       </c>
       <c r="V13" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
@@ -1910,7 +1974,7 @@
         <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AA13" t="n">
         <v>5.9</v>
@@ -1925,22 +1989,22 @@
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -1975,10 +2039,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -2585,7 +2649,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>2.8</v>
@@ -3210,10 +3274,10 @@
         <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N24" t="n">
         <v>2.35</v>
@@ -3927,86 +3991,90 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N30" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+        <v>1.75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.45</v>
+      </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="S30" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T30" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="U30" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="V30" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF30" t="n">
         <v>9</v>
       </c>
-      <c r="AA30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11</v>
-      </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -4041,86 +4109,86 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="S31" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="T31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X31" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AA31" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="AB31" t="n">
         <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD31" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -4277,86 +4345,86 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M33" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="N33" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="S33" t="n">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="T33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>20</v>
+      </c>
+      <c r="V33" t="n">
         <v>11.25</v>
       </c>
-      <c r="U33" t="n">
-        <v>16</v>
-      </c>
-      <c r="V33" t="n">
-        <v>10.5</v>
-      </c>
       <c r="W33" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X33" t="n">
         <v>22</v>
       </c>
       <c r="Y33" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z33" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF33" t="n">
         <v>13</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>11.5</v>
       </c>
       <c r="AG33" t="n">
         <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -4391,10 +4459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
         <v>2.25</v>
@@ -4402,67 +4470,67 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M34" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="N34" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
         <v>1.47</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S34" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T34" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U34" t="n">
         <v>14</v>
       </c>
       <c r="V34" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W34" t="n">
         <v>37</v>
       </c>
       <c r="X34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y34" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD34" t="n">
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG34" t="n">
         <v>9.5</v>
@@ -4474,7 +4542,7 @@
         <v>21</v>
       </c>
       <c r="AJ34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -4509,13 +4577,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4538,25 +4606,25 @@
         <v>2.55</v>
       </c>
       <c r="R35" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U35" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="V35" t="n">
         <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>26</v>
@@ -4565,34 +4633,34 @@
         <v>10</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB35" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE35" t="n">
         <v>12.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH35" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -4627,19 +4695,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.33</v>
@@ -4654,10 +4722,10 @@
         <v>1.73</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R36" t="n">
         <v>1.91</v>
@@ -4770,10 +4838,10 @@
         <v>3.4</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P37" t="n">
         <v>1.4</v>
@@ -4871,19 +4939,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
         <v>1.29</v>
@@ -4892,16 +4960,16 @@
         <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
         <v>1.8</v>
@@ -4910,25 +4978,25 @@
         <v>1.91</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V38" t="n">
         <v>12</v>
       </c>
       <c r="W38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y38" t="n">
         <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
         <v>7</v>
@@ -4943,22 +5011,22 @@
         <v>600</v>
       </c>
       <c r="AE38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
         <v>17</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -5237,19 +5305,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
         <v>1.36</v>
@@ -5285,10 +5353,10 @@
         <v>15</v>
       </c>
       <c r="W41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="n">
         <v>41</v>
@@ -5309,16 +5377,16 @@
         <v>401</v>
       </c>
       <c r="AE41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG41" t="n">
         <v>9</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI41" t="n">
         <v>17</v>
@@ -5359,7 +5427,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
@@ -5368,34 +5436,34 @@
         <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O42" t="n">
         <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T42" t="n">
         <v>9</v>
@@ -5404,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="V42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
         <v>21</v>
@@ -5413,16 +5481,16 @@
         <v>17</v>
       </c>
       <c r="Y42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
         <v>6.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>1.13</v>
@@ -784,34 +784,34 @@
         <v>6</v>
       </c>
       <c r="L3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.57</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>2.25</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V3" t="n">
         <v>15</v>
@@ -820,7 +820,7 @@
         <v>41</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="n">
         <v>51</v>
@@ -847,10 +847,10 @@
         <v>9.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -924,16 +924,16 @@
         <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
         <v>7.5</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
@@ -942,13 +942,13 @@
         <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
@@ -963,19 +963,19 @@
         <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1046,10 +1046,10 @@
         <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T5" t="n">
         <v>19</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1168,7 +1168,7 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>2.05</v>
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I8" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1385,13 +1385,13 @@
         <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P8" t="n">
         <v>1.38</v>
@@ -1409,28 +1409,28 @@
         <v>6.3</v>
       </c>
       <c r="U8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
         <v>150</v>
@@ -1439,22 +1439,22 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AI8" t="n">
         <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1611,88 +1611,90 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>9.25</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="N10" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="R10" t="n">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="S10" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="T10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U10" t="n">
         <v>5.1</v>
       </c>
-      <c r="U10" t="n">
-        <v>5.8</v>
-      </c>
       <c r="V10" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AI10" t="n">
         <v>175</v>
       </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>150</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1727,41 +1729,91 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.49</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>28</v>
+      </c>
+      <c r="X11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1801,13 +1853,13 @@
         <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>1.18</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.72</v>
@@ -1828,13 +1880,13 @@
         <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U12" t="n">
         <v>12.5</v>
@@ -1849,13 +1901,13 @@
         <v>35</v>
       </c>
       <c r="Y12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -1867,16 +1919,16 @@
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
@@ -1917,19 +1969,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.16</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="L13" t="n">
         <v>1.7</v>
@@ -1959,10 +2011,10 @@
         <v>5</v>
       </c>
       <c r="U13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W13" t="n">
         <v>24</v>
@@ -1974,13 +2026,13 @@
         <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>200</v>
@@ -1989,16 +2041,16 @@
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI13" t="n">
         <v>45</v>
@@ -2075,7 +2127,7 @@
         <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T14" t="n">
         <v>6.5</v>
@@ -2414,34 +2466,34 @@
         <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>6.5</v>
@@ -2450,7 +2502,7 @@
         <v>8.5</v>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -2462,22 +2514,22 @@
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2489,7 +2541,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2649,13 +2701,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>1.14</v>
@@ -2688,10 +2740,10 @@
         <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>11</v>
@@ -2700,7 +2752,7 @@
         <v>26</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
@@ -2721,7 +2773,7 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF19" t="n">
         <v>13</v>
@@ -2893,19 +2945,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -2932,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U21" t="n">
         <v>17</v>
@@ -2941,10 +2993,10 @@
         <v>12</v>
       </c>
       <c r="W21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>34</v>
@@ -2959,22 +3011,22 @@
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="n">
         <v>201</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
         <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -3991,13 +4043,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4014,31 +4066,31 @@
         <v>1.75</v>
       </c>
       <c r="P30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q30" t="n">
         <v>2.45</v>
       </c>
       <c r="R30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T30" t="n">
         <v>8.25</v>
       </c>
       <c r="U30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
@@ -4047,10 +4099,10 @@
         <v>9.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC30" t="n">
         <v>45</v>
@@ -4059,19 +4111,19 @@
         <v>300</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ30" t="n">
         <v>21</v>
@@ -4109,21 +4161,21 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N31" t="n">
         <v>1.7</v>
@@ -4140,22 +4192,22 @@
         <v>2.09</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z31" t="n">
         <v>11.75</v>
@@ -4173,19 +4225,19 @@
         <v>250</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG31" t="n">
         <v>7.1</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ31" t="n">
         <v>18</v>
@@ -4459,36 +4511,36 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N34" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>1.65</v>
@@ -4503,7 +4555,7 @@
         <v>11.75</v>
       </c>
       <c r="W34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X34" t="n">
         <v>32</v>
@@ -4512,13 +4564,13 @@
         <v>50</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA34" t="n">
         <v>6.2</v>
       </c>
       <c r="AB34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC34" t="n">
         <v>110</v>
@@ -4527,19 +4579,19 @@
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF34" t="n">
         <v>9.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ34" t="n">
         <v>40</v>
@@ -4695,19 +4747,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
         <v>1.33</v>
@@ -4737,16 +4789,16 @@
         <v>8.5</v>
       </c>
       <c r="U36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V36" t="n">
         <v>11</v>
       </c>
       <c r="W36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
@@ -4776,10 +4828,10 @@
         <v>9.5</v>
       </c>
       <c r="AH36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI36" t="n">
         <v>21</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>29</v>
@@ -4939,13 +4991,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
@@ -4960,10 +5012,10 @@
         <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O38" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -4978,19 +5030,19 @@
         <v>1.91</v>
       </c>
       <c r="T38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V38" t="n">
         <v>12</v>
       </c>
       <c r="W38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>34</v>
@@ -5014,7 +5066,7 @@
         <v>7.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG38" t="n">
         <v>9</v>
@@ -5549,13 +5601,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
@@ -662,70 +662,70 @@
         <v>8.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N2" t="n">
         <v>1.7</v>
       </c>
       <c r="O2" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U2" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="V2" t="n">
         <v>8.75</v>
       </c>
       <c r="W2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
         <v>8.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>50</v>
       </c>
       <c r="AD2" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE2" t="n">
         <v>11.25</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH2" t="n">
         <v>40</v>
@@ -805,7 +805,7 @@
         <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -837,9 +837,7 @@
       <c r="AC3" t="n">
         <v>81</v>
       </c>
-      <c r="AD3" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
         <v>6</v>
       </c>
@@ -924,10 +922,10 @@
         <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
         <v>7.5</v>
@@ -1013,19 +1011,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="n">
         <v>1.13</v>
@@ -1046,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="T5" t="n">
         <v>19</v>
@@ -1073,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1088,13 +1086,13 @@
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" t="n">
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1168,7 +1166,7 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>2.05</v>
@@ -1257,27 +1255,27 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1288,7 +1286,7 @@
         <v>1.55</v>
       </c>
       <c r="T7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
         <v>5.6</v>
@@ -1297,19 +1295,19 @@
         <v>8.75</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y7" t="n">
         <v>35</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB7" t="n">
         <v>25</v>
@@ -1317,20 +1315,18 @@
       <c r="AC7" t="n">
         <v>150</v>
       </c>
-      <c r="AD7" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AI7" t="n">
         <v>150</v>
@@ -1371,27 +1367,27 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P8" t="n">
         <v>1.38</v>
@@ -1400,61 +1396,59 @@
         <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W8" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y8" t="n">
         <v>35</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
         <v>150</v>
       </c>
-      <c r="AD8" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1675,9 +1669,7 @@
       <c r="AC10" t="n">
         <v>200</v>
       </c>
-      <c r="AD10" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
         <v>18</v>
       </c>
@@ -1729,90 +1721,88 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.8</v>
-      </c>
+        <v>2.57</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>2.49</v>
+        <v>2.35</v>
       </c>
       <c r="N11" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+        <v>1.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="W11" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
         <v>45</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>101</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.4</v>
+        <v>10.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1915,9 +1905,7 @@
       <c r="AC12" t="n">
         <v>175</v>
       </c>
-      <c r="AD12" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
         <v>5.8</v>
       </c>
@@ -2037,9 +2025,7 @@
       <c r="AC13" t="n">
         <v>200</v>
       </c>
-      <c r="AD13" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
         <v>6.7</v>
       </c>
@@ -2100,10 +2086,10 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>1.5</v>
@@ -2127,7 +2113,7 @@
         <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
         <v>6.5</v>
@@ -2344,22 +2330,22 @@
         <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2588,10 +2574,10 @@
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.4</v>
@@ -2600,31 +2586,31 @@
         <v>2.75</v>
       </c>
       <c r="N18" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
+        <v>9</v>
+      </c>
+      <c r="V18" t="n">
         <v>9.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>9</v>
       </c>
       <c r="W18" t="n">
         <v>19</v>
@@ -2636,22 +2622,22 @@
         <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -2704,43 +2690,43 @@
         <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.62</v>
       </c>
-      <c r="M19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
         <v>10</v>
@@ -2749,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -2758,20 +2744,18 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
         <v>81</v>
       </c>
-      <c r="AD19" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
         <v>7</v>
       </c>
@@ -2788,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2954,10 +2938,10 @@
         <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -2966,10 +2950,10 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -3317,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
@@ -3344,10 +3328,10 @@
         <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
         <v>7.5</v>
@@ -3362,13 +3346,13 @@
         <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3386,7 +3370,7 @@
         <v>7.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
@@ -3686,10 +3670,10 @@
         <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -3867,9 +3851,7 @@
       <c r="AC28" t="n">
         <v>67</v>
       </c>
-      <c r="AD28" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
         <v>8.5</v>
       </c>
@@ -3942,10 +3924,10 @@
         <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -4043,87 +4025,79 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P30" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.96</v>
-      </c>
+        <v>2.52</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U30" t="n">
         <v>13.5</v>
       </c>
       <c r="V30" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
         <v>45</v>
       </c>
       <c r="AD30" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG30" t="n">
         <v>7.4</v>
       </c>
       <c r="AH30" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ30" t="n">
         <v>21</v>
@@ -4171,12 +4145,8 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>1.7</v>
       </c>
@@ -4185,12 +4155,8 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.09</v>
-      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
         <v>10.25</v>
       </c>
@@ -4343,9 +4309,7 @@
       <c r="AC32" t="n">
         <v>120</v>
       </c>
-      <c r="AD32" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
         <v>9.75</v>
       </c>
@@ -4400,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -4414,69 +4378,69 @@
         <v>3.7</v>
       </c>
       <c r="N33" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="O33" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S33" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="T33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="U33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="V33" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W33" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X33" t="n">
         <v>22</v>
       </c>
       <c r="Y33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z33" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD33" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF33" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF33" t="n">
-        <v>13</v>
-      </c>
       <c r="AG33" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH33" t="n">
         <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -4575,9 +4539,7 @@
       <c r="AC34" t="n">
         <v>110</v>
       </c>
-      <c r="AD34" t="n">
-        <v>101</v>
-      </c>
+      <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="n">
         <v>6.1</v>
       </c>
@@ -5134,10 +5096,10 @@
         <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
         <v>1.01</v>
@@ -1032,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P5" t="n">
         <v>1.22</v>
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="U5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V5" t="n">
         <v>15</v>
@@ -1065,7 +1065,7 @@
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
@@ -1074,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -2214,16 +2214,16 @@
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
         <v>1.53</v>
@@ -2232,31 +2232,31 @@
         <v>2.38</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T15" t="n">
         <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V15" t="n">
         <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2283,7 +2283,7 @@
         <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2354,55 +2354,55 @@
         <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA16" t="n">
         <v>6.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -2452,16 +2452,16 @@
         <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
         <v>2.1</v>
@@ -2577,7 +2577,7 @@
         <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>1.4</v>
@@ -2702,22 +2702,22 @@
         <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
         <v>2.2</v>
@@ -2735,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X19" t="n">
         <v>26</v>
@@ -3185,7 +3185,7 @@
         <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.4</v>
@@ -3206,19 +3206,19 @@
         <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U23" t="n">
         <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
         <v>21</v>
@@ -3239,13 +3239,13 @@
         <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD23" t="n">
         <v>351</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
         <v>15</v>
@@ -4594,10 +4594,10 @@
         <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4620,7 +4620,7 @@
         <v>2.55</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S35" t="n">
         <v>1.8</v>
@@ -4629,7 +4629,7 @@
         <v>6.7</v>
       </c>
       <c r="U35" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="V35" t="n">
         <v>8</v>
@@ -4638,10 +4638,10 @@
         <v>12.5</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z35" t="n">
         <v>10</v>
@@ -4662,10 +4662,10 @@
         <v>12.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH35" t="n">
         <v>90</v>
@@ -4709,13 +4709,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H36" t="n">
         <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
@@ -4831,13 +4831,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J37" t="n">
         <v>1.03</v>
@@ -4870,7 +4870,7 @@
         <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U37" t="n">
         <v>12</v>
@@ -4879,10 +4879,10 @@
         <v>10</v>
       </c>
       <c r="W37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
         <v>29</v>
@@ -4903,10 +4903,10 @@
         <v>600</v>
       </c>
       <c r="AE37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -769,37 +769,37 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>2.2</v>
@@ -808,10 +808,10 @@
         <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V3" t="n">
         <v>15</v>
@@ -820,7 +820,7 @@
         <v>41</v>
       </c>
       <c r="X3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
         <v>51</v>
@@ -842,13 +842,13 @@
         <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -931,7 +931,7 @@
         <v>7.5</v>
       </c>
       <c r="U4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
@@ -940,7 +940,7 @@
         <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
@@ -961,19 +961,19 @@
         <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1020,10 +1020,10 @@
         <v>1.48</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
         <v>1.13</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
@@ -1367,27 +1367,27 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="I8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.38</v>
@@ -1396,47 +1396,47 @@
         <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T8" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="U8" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="V8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
         <v>30</v>
@@ -1445,10 +1445,10 @@
         <v>300</v>
       </c>
       <c r="AI8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1837,92 +1837,92 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V12" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W12" t="n">
+        <v>45</v>
+      </c>
+      <c r="X12" t="n">
         <v>37</v>
       </c>
-      <c r="X12" t="n">
-        <v>35</v>
-      </c>
       <c r="Y12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1957,31 +1957,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H13" t="n">
         <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>1.16</v>
       </c>
       <c r="K13" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M13" t="n">
         <v>2.02</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
         <v>1.7</v>
@@ -1996,16 +1996,16 @@
         <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V13" t="n">
         <v>10.75</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
@@ -2014,23 +2014,23 @@
         <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>200</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2039,7 +2039,7 @@
         <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
         <v>80</v>
@@ -2321,25 +2321,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
         <v>2.1</v>
@@ -2363,13 +2363,13 @@
         <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2402,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -2696,10 +2696,10 @@
         <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.57</v>
@@ -2744,13 +2744,13 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
         <v>81</v>
@@ -2772,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -2816,10 +2816,10 @@
         <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2828,10 +2828,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -3135,7 +3135,7 @@
         <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -3179,7 +3179,7 @@
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3188,10 +3188,10 @@
         <v>7.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N23" t="n">
         <v>2.35</v>
@@ -3798,10 +3798,10 @@
         <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N28" t="n">
         <v>2.5</v>
@@ -4398,7 +4398,7 @@
         <v>19.5</v>
       </c>
       <c r="V33" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W33" t="n">
         <v>37</v>
@@ -4431,7 +4431,7 @@
         <v>12.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
         <v>19.5</v>
@@ -4709,19 +4709,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
         <v>1.33</v>
@@ -4742,10 +4742,10 @@
         <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T36" t="n">
         <v>8.5</v>
@@ -4766,10 +4766,10 @@
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
         <v>15</v>
@@ -4778,16 +4778,16 @@
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>23</v>
@@ -4796,7 +4796,7 @@
         <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -5453,7 +5453,7 @@
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -772,7 +772,7 @@
         <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
         <v>2.4</v>
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W3" t="n">
         <v>41</v>
@@ -851,7 +851,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -889,37 +889,37 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
         <v>1.83</v>
@@ -928,7 +928,7 @@
         <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
         <v>10</v>
@@ -946,13 +946,13 @@
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -961,7 +961,7 @@
         <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
-        <v>5.5</v>
-      </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="n">
         <v>1.13</v>
@@ -1032,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.22</v>
@@ -1044,16 +1044,16 @@
         <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T5" t="n">
         <v>19</v>
       </c>
       <c r="U5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V5" t="n">
         <v>15</v>
@@ -1065,16 +1065,16 @@
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
@@ -1086,13 +1086,13 @@
         <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1193,28 +1193,28 @@
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H12" t="n">
         <v>2.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
         <v>1.2</v>
@@ -1876,22 +1876,22 @@
         <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
         <v>11.75</v>
       </c>
       <c r="W12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X12" t="n">
         <v>37</v>
       </c>
       <c r="Y12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z12" t="n">
         <v>4.05</v>
@@ -1907,16 +1907,16 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
@@ -2098,10 +2098,10 @@
         <v>2.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P14" t="n">
         <v>1.53</v>
@@ -2330,16 +2330,16 @@
         <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N16" t="n">
         <v>2.1</v>
@@ -2565,19 +2565,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
         <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.4</v>
@@ -2604,7 +2604,7 @@
         <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
         <v>9</v>
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
         <v>1.14</v>
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
         <v>11</v>
@@ -2828,10 +2828,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2929,19 +2929,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -2950,10 +2950,10 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2971,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
         <v>12</v>
@@ -3007,16 +3007,16 @@
         <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -3072,10 +3072,10 @@
         <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -3135,7 +3135,7 @@
         <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -3185,7 +3185,7 @@
         <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
@@ -3358,28 +3358,28 @@
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AE24" t="n">
         <v>7.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3438,10 +3438,10 @@
         <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3670,10 +3670,10 @@
         <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -3918,16 +3918,16 @@
         <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -5328,10 +5328,10 @@
         <v>1.91</v>
       </c>
       <c r="J41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
         <v>1.36</v>
@@ -5462,10 +5462,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P42" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-06.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.14</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1166,22 +1166,22 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1193,16 +1193,16 @@
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1220,7 +1220,7 @@
         <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1255,81 +1255,81 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="N7" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="U7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
         <v>35</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>150</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ7" t="n">
         <v>120</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H8" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I8" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1381,13 +1381,13 @@
         <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P8" t="n">
         <v>1.38</v>
@@ -1396,7 +1396,7 @@
         <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
         <v>1.52</v>
@@ -1411,41 +1411,41 @@
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
         <v>37</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB8" t="n">
         <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
         <v>120</v>
@@ -1837,40 +1837,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="I12" t="n">
         <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K12" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="M12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
         <v>1.57</v>
@@ -1882,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W12" t="n">
         <v>40</v>
@@ -1894,20 +1894,20 @@
         <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AA12" t="n">
         <v>5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
         <v>150</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF12" t="n">
         <v>14.5</v>
@@ -1960,7 +1960,7 @@
         <v>2.27</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
@@ -1969,19 +1969,19 @@
         <v>1.16</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M13" t="n">
         <v>2.02</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
         <v>1.7</v>
@@ -1996,25 +1996,25 @@
         <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="U13" t="n">
         <v>8.75</v>
       </c>
       <c r="V13" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W13" t="n">
         <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AA13" t="n">
         <v>5.9</v>
@@ -2027,13 +2027,13 @@
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF13" t="n">
         <v>16.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>55</v>
@@ -2083,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>1.1</v>
@@ -2098,10 +2098,10 @@
         <v>2.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
         <v>1.53</v>
@@ -2119,7 +2119,7 @@
         <v>6.5</v>
       </c>
       <c r="U14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V14" t="n">
         <v>10</v>
@@ -2149,7 +2149,7 @@
         <v>501</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
         <v>13</v>
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2342,10 +2342,10 @@
         <v>3.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2363,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
@@ -2402,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -2449,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>1.06</v>
@@ -2464,31 +2464,31 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
         <v>8.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -2500,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2512,22 +2512,22 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2565,13 +2565,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.08</v>
@@ -2580,10 +2580,10 @@
         <v>7.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N18" t="n">
         <v>2.35</v>
@@ -2604,7 +2604,7 @@
         <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
         <v>9</v>
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>1.14</v>
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>11</v>
@@ -2807,19 +2807,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2834,10 +2834,10 @@
         <v>1.75</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
         <v>1.91</v>
@@ -2852,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W20" t="n">
         <v>15</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2888,7 +2888,7 @@
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
         <v>41</v>
@@ -2944,16 +2944,16 @@
         <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -3072,10 +3072,10 @@
         <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -3301,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
@@ -3328,10 +3328,10 @@
         <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T24" t="n">
         <v>7.5</v>
@@ -3343,22 +3343,22 @@
         <v>11</v>
       </c>
       <c r="W24" t="n">
+        <v>29</v>
+      </c>
+      <c r="X24" t="n">
         <v>26</v>
-      </c>
-      <c r="X24" t="n">
-        <v>23</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
@@ -3417,19 +3417,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
         <v>1.4</v>
@@ -3462,7 +3462,7 @@
         <v>10</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
         <v>21</v>
@@ -3498,10 +3498,10 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
         <v>41</v>
@@ -3548,22 +3548,22 @@
         <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3578,13 +3578,13 @@
         <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W26" t="n">
         <v>34</v>
@@ -3602,7 +3602,7 @@
         <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>51</v>
@@ -3623,7 +3623,7 @@
         <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>29</v>
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
@@ -3930,19 +3930,19 @@
         <v>1.9</v>
       </c>
       <c r="P29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
         <v>11</v>
@@ -3957,10 +3957,10 @@
         <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
@@ -3972,25 +3972,25 @@
         <v>41</v>
       </c>
       <c r="AD29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
@@ -5453,7 +5453,7 @@
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" t="n">
         <v>1.22</v>
@@ -5462,10 +5462,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>1.33</v>
